--- a/biology/Médecine/Septum_intermusculaire_vasto-adducteur/Septum_intermusculaire_vasto-adducteur.xlsx
+++ b/biology/Médecine/Septum_intermusculaire_vasto-adducteur/Septum_intermusculaire_vasto-adducteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum intermusculaire latéral vasto-adducteur est une membrane aponévrotique du membre inférieur située dans la cuisse. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septum intermusculaire latéral vasto-adducteur est une lame tendineuse tendue entre le muscle les muscles long et grand adducteurs et le muscle vaste médial.
 Il forme la partie inférieure de la paroi médiale du canal des adducteurs.
